--- a/CombinedData/MelanomaIL2_SampleAnnotations.xlsx
+++ b/CombinedData/MelanomaIL2_SampleAnnotations.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pourmalm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\CombinedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5DE49F07-F593-491E-BFB9-B8B2A6CCE6A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2297643-97BE-4101-81CB-A608EBFEADC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2374,6 +2374,12 @@
       <c r="X21" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">

--- a/CombinedData/MelanomaIL2_SampleAnnotations.xlsx
+++ b/CombinedData/MelanomaIL2_SampleAnnotations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\CombinedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2297643-97BE-4101-81CB-A608EBFEADC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2471852E-3B41-4C9C-BC4D-9A0FF7C514FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="155">
   <si>
     <t>Microscope</t>
   </si>
@@ -478,6 +478,18 @@
   </si>
   <si>
     <t>6_4</t>
+  </si>
+  <si>
+    <t>Patient Response</t>
+  </si>
+  <si>
+    <t>Partial Responder</t>
+  </si>
+  <si>
+    <t>Non-Responder</t>
+  </si>
+  <si>
+    <t>Complete Responder</t>
   </si>
 </sst>
 </file>
@@ -842,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,12 +864,12 @@
     <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
     <col min="5" max="15" width="13.85546875" style="1" customWidth="1"/>
-    <col min="16" max="17" width="13.85546875" style="4" customWidth="1"/>
-    <col min="18" max="26" width="13.85546875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="18" width="13.85546875" style="4" customWidth="1"/>
+    <col min="19" max="27" width="13.85546875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -910,34 +922,37 @@
         <v>123</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -987,19 +1002,22 @@
         <v>124</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1049,28 +1067,31 @@
         <v>124</v>
       </c>
       <c r="R3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <v>7</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Y3" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1120,28 +1141,31 @@
         <v>124</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <v>3</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Y4" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1192,24 +1216,27 @@
         <v>124</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="X5" s="3"/>
+      <c r="T5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1260,32 +1287,35 @@
         <v>125</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="4" t="s">
+      <c r="T6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="5">
         <v>12</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Y6" s="4">
         <v>133</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Z6" s="4">
         <v>6</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AA6" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1336,28 +1366,31 @@
         <v>124</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="4" t="s">
+      <c r="T7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="V7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="V7" s="5">
-        <v>2</v>
-      </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="5">
+        <v>2</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <v>287</v>
       </c>
-      <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -1408,26 +1441,29 @@
         <v>124</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="X8" s="3"/>
+      <c r="V8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1478,30 +1514,33 @@
         <v>124</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -1552,30 +1591,33 @@
         <v>124</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="W10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1626,30 +1668,33 @@
         <v>124</v>
       </c>
       <c r="R11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="W11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -1700,26 +1745,29 @@
         <v>124</v>
       </c>
       <c r="R12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="X12" s="3"/>
+      <c r="V12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W12" s="5"/>
+      <c r="X12" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
@@ -1770,34 +1818,37 @@
         <v>125</v>
       </c>
       <c r="R13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="V13" s="5">
-        <v>2</v>
-      </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" s="5">
+        <v>2</v>
+      </c>
+      <c r="X13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <v>126</v>
       </c>
-      <c r="Y13" s="4">
-        <v>4</v>
-      </c>
       <c r="Z13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -1850,30 +1901,33 @@
         <v>125</v>
       </c>
       <c r="R14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="4">
-        <v>4</v>
-      </c>
+      <c r="V14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y14" s="3"/>
       <c r="Z14" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
@@ -1924,24 +1978,27 @@
         <v>124</v>
       </c>
       <c r="R15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="X15" s="3"/>
+      <c r="T15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="V15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -1992,24 +2049,27 @@
         <v>124</v>
       </c>
       <c r="R16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="X16" s="3"/>
+      <c r="T16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
@@ -2062,30 +2122,33 @@
         <v>124</v>
       </c>
       <c r="R17" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="V17" s="5">
+      <c r="W17" s="5">
         <v>5</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="X17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>7</v>
       </c>
-      <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -2138,30 +2201,33 @@
         <v>124</v>
       </c>
       <c r="R18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="U18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="V18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="V18" s="5">
-        <v>4</v>
-      </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="5">
+        <v>4</v>
+      </c>
+      <c r="X18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <v>14</v>
       </c>
-      <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>74</v>
       </c>
@@ -2214,30 +2280,33 @@
         <v>124</v>
       </c>
       <c r="R19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="T19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="U19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="V19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="V19" s="5">
+      <c r="W19" s="5">
         <v>3</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="X19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <v>14</v>
       </c>
-      <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>78</v>
       </c>
@@ -2254,7 +2323,7 @@
         <v>79</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>6</v>
@@ -2288,22 +2357,25 @@
         <v>124</v>
       </c>
       <c r="R20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="X20" s="3"/>
+      <c r="T20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
@@ -2356,32 +2428,35 @@
         <v>125</v>
       </c>
       <c r="R21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="5" t="s">
+      <c r="T21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="W21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="X21" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Y21" s="1">
-        <v>1</v>
-      </c>
       <c r="Z21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -2432,22 +2507,25 @@
         <v>124</v>
       </c>
       <c r="R22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="X22" s="3"/>
+      <c r="T22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>88</v>
       </c>
@@ -2498,26 +2576,29 @@
         <v>124</v>
       </c>
       <c r="R23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="5" t="s">
+      <c r="T23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="V23" s="5">
+      <c r="W23" s="5">
         <v>3</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="X23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Y23" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>90</v>
       </c>
@@ -2568,26 +2649,29 @@
         <v>124</v>
       </c>
       <c r="R24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="5" t="s">
+      <c r="T24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="V24" s="5">
+      <c r="W24" s="5">
         <v>3</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="X24" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Y24" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>91</v>
       </c>
@@ -2638,20 +2722,23 @@
         <v>124</v>
       </c>
       <c r="R25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T25" s="3"/>
-      <c r="U25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="X25" s="3"/>
+      <c r="T25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="3"/>
+      <c r="V25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
